--- a/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplates/_ReportLayout_3.xlsx
+++ b/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplates/_ReportLayout_3.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>

--- a/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplates/_ReportLayout_3.xlsx
+++ b/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplates/_ReportLayout_3.xlsx
@@ -10,20 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>MIZUHO BANK, LTD. - MANILA BRANCH</t>
-  </si>
-  <si>
-    <t>25th Floor, The Zuellig Building, Makati Avenue corner Paseo de Roxas, Makati City 1225</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ATC</t>
   </si>
@@ -37,50 +31,38 @@
     <t>AMOUNT OF TAX WITHHELD</t>
   </si>
   <si>
+    <t>SEQ.NO.</t>
+  </si>
+  <si>
+    <t>TIN NUMBER</t>
+  </si>
+  <si>
+    <t>TAX BASE</t>
+  </si>
+  <si>
+    <t>SUPPLIER'S NAME</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
     <t>ALPHALIST OF REGULAR SUPPLIERS BY TOP 10,000 PRIVATE CORPORATIONS</t>
-  </si>
-  <si>
-    <t>SEQ.NO.</t>
-  </si>
-  <si>
-    <t>NAME:</t>
-  </si>
-  <si>
-    <t>ADDRESS:</t>
-  </si>
-  <si>
-    <t>TIN:</t>
-  </si>
-  <si>
-    <t>RDO NAME:</t>
-  </si>
-  <si>
-    <t>004-669-467</t>
-  </si>
-  <si>
-    <t>Large Taxpayers Division</t>
-  </si>
-  <si>
-    <t>RDO CODE: 0116</t>
-  </si>
-  <si>
-    <t>TIN NUMBER</t>
-  </si>
-  <si>
-    <t>TAX BASE</t>
-  </si>
-  <si>
-    <t>SUPPLIER'S NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +87,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -178,55 +151,43 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,6 +204,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>296604</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10026" y="10026"/>
+          <a:ext cx="1010478" cy="350397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,134 +543,128 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="17" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="H6" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="G7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.17708333333333334" bottom="0.60416666666666663" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.17708333333333334" bottom="0.76041666666666663" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;D &amp;T&amp;CPage &amp;P</oddFooter>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>